--- a/individual_case_outputs/avey/271.xlsx
+++ b/individual_case_outputs/avey/271.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +607,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>urinary tract infection</t>
+          <t>cystitis</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>urinary tract infection</t>
+          <t>cystitis</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -819,15 +819,11 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>urethritis</t>
+          <t>chlamydia</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>cystitis</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>acute appendicitis</t>
@@ -1027,7 +1023,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>cystitis</t>
+          <t>urethritis</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1038,39 +1034,6 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>urethritis</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
